--- a/data/trans_orig/P36BPD05_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>184135</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>160869</v>
+        <v>162549</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>206569</v>
+        <v>206249</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3201637619827072</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2797101941326078</v>
+        <v>0.2826312970058704</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3591717728834948</v>
+        <v>0.3586148879952804</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>372</v>
@@ -762,19 +762,19 @@
         <v>234521</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>213264</v>
+        <v>215312</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>254867</v>
+        <v>256595</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2862207268558472</v>
+        <v>0.2862207268558473</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2602777318552648</v>
+        <v>0.2627769169173324</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3110524679748334</v>
+        <v>0.3131605057361695</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>578</v>
@@ -783,19 +783,19 @@
         <v>418655</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>389526</v>
+        <v>387631</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>448728</v>
+        <v>446845</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.300219711772546</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2793307799458506</v>
+        <v>0.2779717963489545</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3217846836119524</v>
+        <v>0.3204347135530337</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>390992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>368558</v>
+        <v>368878</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>414258</v>
+        <v>412578</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6798362380172926</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6408282271165058</v>
+        <v>0.6413851120047198</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7202898058673926</v>
+        <v>0.7173687029941298</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1050</v>
@@ -833,19 +833,19 @@
         <v>584850</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>564504</v>
+        <v>562776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>606107</v>
+        <v>604059</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7137792731441527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6889475320251666</v>
+        <v>0.6868394942638313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7397222681447351</v>
+        <v>0.737223083082668</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1530</v>
@@ -854,19 +854,19 @@
         <v>975842</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>945769</v>
+        <v>947652</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1004971</v>
+        <v>1006866</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.699780288227454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6782153163880474</v>
+        <v>0.6795652864469661</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7206692200541495</v>
+        <v>0.7220282036510455</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>751084</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>700891</v>
+        <v>698794</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>804588</v>
+        <v>800067</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.337482683306706</v>
+        <v>0.3374826833067059</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3149297626308525</v>
+        <v>0.3139872091904898</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.361523569521098</v>
+        <v>0.3594921431918256</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>795</v>
@@ -979,19 +979,19 @@
         <v>647348</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>608918</v>
+        <v>602303</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>688172</v>
+        <v>687575</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2989704044644187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2812218087157291</v>
+        <v>0.278166500344795</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3178242996219408</v>
+        <v>0.3175484024897191</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1435</v>
@@ -1000,19 +1000,19 @@
         <v>1398433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1334322</v>
+        <v>1332393</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1460094</v>
+        <v>1465335</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3184909449774054</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3038898161324164</v>
+        <v>0.3034505257102382</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3325343271141213</v>
+        <v>0.3337278517518441</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1474464</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1420960</v>
+        <v>1425481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1524657</v>
+        <v>1526754</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6625173166932942</v>
+        <v>0.6625173166932939</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6384764304789019</v>
+        <v>0.6405078568081743</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6850702373691474</v>
+        <v>0.6860127908095099</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2117</v>
@@ -1050,19 +1050,19 @@
         <v>1517911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1477087</v>
+        <v>1477684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1556341</v>
+        <v>1562956</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7010295955355813</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6821757003780591</v>
+        <v>0.6824515975102808</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7187781912842707</v>
+        <v>0.721833499655205</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3464</v>
@@ -1071,19 +1071,19 @@
         <v>2992375</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2930714</v>
+        <v>2925473</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3056486</v>
+        <v>3058415</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6815090550225945</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6674656728858787</v>
+        <v>0.6662721482481553</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6961101838675837</v>
+        <v>0.6965494742897614</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>197159</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171182</v>
+        <v>172471</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>222849</v>
+        <v>228019</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2770695640259347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2405635576658926</v>
+        <v>0.2423752212115153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3131722138801309</v>
+        <v>0.320437415259993</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>195</v>
@@ -1196,19 +1196,19 @@
         <v>154960</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>133394</v>
+        <v>134400</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>175408</v>
+        <v>175976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2110648848473317</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1816914822672237</v>
+        <v>0.1830616694716918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2389169475738944</v>
+        <v>0.2396899735716573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>368</v>
@@ -1217,19 +1217,19 @@
         <v>352119</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>318826</v>
+        <v>322396</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>387530</v>
+        <v>389298</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2435514949340325</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2205240471381232</v>
+        <v>0.2229933913535993</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2680447030299102</v>
+        <v>0.2692673121745102</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>514428</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>488738</v>
+        <v>483568</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540405</v>
+        <v>539116</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7229304359740653</v>
+        <v>0.7229304359740651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6868277861198692</v>
+        <v>0.6795625847400069</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7594364423341073</v>
+        <v>0.7576247787884846</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>808</v>
@@ -1267,19 +1267,19 @@
         <v>579220</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>558772</v>
+        <v>558204</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>600786</v>
+        <v>599780</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7889351151526682</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7610830524261056</v>
+        <v>0.7603100264283427</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8183085177327764</v>
+        <v>0.8169383305283081</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1316</v>
@@ -1288,19 +1288,19 @@
         <v>1093648</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1058237</v>
+        <v>1056469</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1126941</v>
+        <v>1123371</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7564485050659676</v>
+        <v>0.7564485050659675</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7319552969700899</v>
+        <v>0.7307326878254896</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7794759528618769</v>
+        <v>0.7770066086464007</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>1132378</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1070511</v>
+        <v>1065660</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1192443</v>
+        <v>1193951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3224069955938524</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3047923388643355</v>
+        <v>0.3034113164345465</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3395086091881707</v>
+        <v>0.3399378538589388</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1362</v>
@@ -1413,19 +1413,19 @@
         <v>1036829</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>983260</v>
+        <v>989261</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1080033</v>
+        <v>1090277</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2788066434696954</v>
+        <v>0.2788066434696955</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2644019157769389</v>
+        <v>0.2660154282873592</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2904243862079682</v>
+        <v>0.2931791257926928</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2381</v>
@@ -1434,19 +1434,19 @@
         <v>2169207</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2091368</v>
+        <v>2083625</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2248248</v>
+        <v>2249694</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2999841207087676</v>
+        <v>0.2999841207087675</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2892196204847396</v>
+        <v>0.288148850742859</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3109149565583705</v>
+        <v>0.3111149180055722</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>2379884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2319819</v>
+        <v>2318311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2441751</v>
+        <v>2446602</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6775930044061476</v>
+        <v>0.6775930044061477</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6604913908118294</v>
+        <v>0.6600621461410613</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6952076611356646</v>
+        <v>0.6965886835654533</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3975</v>
@@ -1484,19 +1484,19 @@
         <v>2681981</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2638777</v>
+        <v>2628533</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2735550</v>
+        <v>2729549</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7211933565303046</v>
+        <v>0.7211933565303047</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7095756137920315</v>
+        <v>0.7068208742073071</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7355980842230606</v>
+        <v>0.7339845717126406</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6310</v>
@@ -1505,19 +1505,19 @@
         <v>5061865</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4982824</v>
+        <v>4981378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5139704</v>
+        <v>5147447</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7000158792912324</v>
+        <v>0.7000158792912323</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6890850434416296</v>
+        <v>0.6888850819944278</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7107803795152604</v>
+        <v>0.7118511492571409</v>
       </c>
     </row>
     <row r="15">
